--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,46 +117,49 @@
     <t>Count</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>助産所</t>
+  </si>
+  <si>
+    <t>医科</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>歯科</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>調剤</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>助産所</t>
-  </si>
-  <si>
-    <t>医科</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>歯科</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>調剤</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>老人保健施設</t>
   </si>
   <si>
     <t>訪問看護ステーション</t>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,6 +553,18 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core MedicalFeeScoreType Codes</t>
+    <t>JP Core MedicalFeeScoreType CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,13 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -418,52 +424,56 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -481,87 +491,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-MedicalFeeScoreType-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
